--- a/biology/Zoologie/Bec-en-faucille_de_La_Condamine/Bec-en-faucille_de_La_Condamine.xlsx
+++ b/biology/Zoologie/Bec-en-faucille_de_La_Condamine/Bec-en-faucille_de_La_Condamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eutoxeres condamini
 Le Bec-en-faucille de la Condamine (Eutoxeres condamini) est une espèce d’oiseaux appartenant à la famille des Trochilidae.
@@ -513,7 +525,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Bolivie, en Colombie, en Équateur et au Pérou.
 </t>
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite les forêts tropicales et subtropicales humides de basse altitude et de montagne.
 </t>
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 13 à 15 cm pour une masse de 10 à 12,5 g chez le mâle et 8 à 10 g chez la femelle.
 </t>
@@ -606,7 +624,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau consomme le nectar des fleurs des genres Heliconia et Centropogon ainsi que de petits arthropodes.
 </t>
@@ -637,7 +657,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des deux sous-espèces suivantes :
 Eutoxeres condamini condamini (Bourcier), 1851 ;
